--- a/BackTest/2020-01-24 BackTest DAD.xlsx
+++ b/BackTest/2020-01-24 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>146983.228880731</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>145917.877680731</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>145396.709880731</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>146626.178196945</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>144235.471325077</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>144267.834225077</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>144267.834225077</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>144155.421425077</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>134241.737925077</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>134195.313125077</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>134966.065425077</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>134963.265425077</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>134996.528025077</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>134993.728025077</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>136406.086525077</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>136758.517725077</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>136620.166825077</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>136625.514418659</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>136608.853818659</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>135816.025618659</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>135849.5663186591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>135816.025618659</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>122155.003218659</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>122177.472918659</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>121815.946718659</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>129916.950418659</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>129916.950418659</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>126102.3500186591</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>125749.8512186591</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>124871.8723186591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>125084.7388834941</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>122239.308083494</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>122239.308083494</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>122569.194983494</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>122569.194983494</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>114656.418983494</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>114662.418983494</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>106791.5811834941</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>106797.136739049</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>106797.136739049</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>98731.04863904906</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>114230.7136390491</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>125365.4655390491</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>126365.4655390491</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>126362.5655390491</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>126925.1626390491</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>131371.1756742141</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>110987.7447093791</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>105309.3712093791</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>98429.86130937906</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>98497.05500937907</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>98300.93610937906</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>98318.72030937906</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>97483.23290937906</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>97483.23290937906</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>97363.66950937906</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>97380.90910937906</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>96584.90910937906</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>96714.98990937906</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>89175.85650937905</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>89121.21170937906</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>87549.93710937905</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>87549.93710937905</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>88102.93130937906</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>85892.45700937905</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>85830.75910937905</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>87272.67840937906</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>89712.94440937907</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>89712.94440937907</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>93467.55060937906</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>98508.27180937906</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>98508.27180937906</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>98685.11960937906</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>98685.11960937906</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>98142.03970937907</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>99462.86970937907</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>101524.5578093791</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>101347.0926093791</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>101347.0926093791</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>101259.6627093791</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>101167.2620093791</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>101122.5471093791</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>101122.5471093791</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>100985.3323093791</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>100890.4525093791</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>100890.4525093791</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>94716.18550937905</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>94716.18550937905</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>96227.40470937906</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>96227.40470937906</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>95978.86040937906</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>90685.19190937906</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>98644.35550937906</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>83473.40860937907</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>80348.92420937907</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>72167.11640937907</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>54235.69840937907</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>54374.57250937907</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>54660.32530937907</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>50637.31260937907</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>50637.31260937907</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>50637.31260937907</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>79654.10540937907</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>85030.10410937907</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>85030.10410937907</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>85243.13050937906</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>65420.42080937906</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>68672.09560937906</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>67506.33610937906</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>67509.33610937906</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>67560.84560937906</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>59462.38170937906</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>62831.58810937906</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>46304.70930937906</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>43129.66700937906</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>43215.56700937906</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>42455.29650937906</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,11 +11506,17 @@
         <v>42455.29650937906</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>176.2</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11545,17 @@
         <v>42455.29650937906</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>176.2</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11584,17 @@
         <v>42301.23680937906</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>176.2</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11623,17 @@
         <v>43040.75840937906</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>175.5</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +11662,17 @@
         <v>43046.75840937906</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>176</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +11701,17 @@
         <v>43043.75840937906</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>179.6</v>
+      </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +11740,17 @@
         <v>43474.41060937906</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>176.1</v>
+      </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +11779,17 @@
         <v>44121.97510937906</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>176.8</v>
+      </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +11818,17 @@
         <v>44121.97510937906</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>177.4</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +11857,17 @@
         <v>44126.97510937906</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>177.4</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +11900,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +11937,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +11974,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12011,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +12048,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12085,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12122,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12159,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +12196,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12233,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12270,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12307,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12344,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12381,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12418,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12455,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +12492,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +12529,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +12566,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12603,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12640,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12677,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +12714,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +12751,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +12788,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +12825,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +12862,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +12899,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +12936,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +12973,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +13010,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +13047,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +13084,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +13121,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +13158,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13195,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +13232,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13269,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13306,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +13343,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13380,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13417,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13454,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +13491,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +13528,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +13565,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +13602,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +13639,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +13676,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13713,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +13750,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +13787,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +13824,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +13861,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +13898,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +13935,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +13972,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +14009,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +14046,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +14083,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +14120,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +14157,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +14194,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +14231,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +14268,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +14305,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +14342,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14379,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14416,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +14453,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +14490,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14527,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +14564,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +14601,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14638,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14675,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +14712,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14749,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +14786,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +14823,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +14860,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +14897,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +14934,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +14971,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +15008,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +15045,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +15082,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +15119,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +15156,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +15193,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +15230,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15267,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +15304,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15341,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15378,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15415,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15452,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +15489,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +15526,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +15563,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15600,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +15637,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +15674,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +15711,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +15748,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +15785,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +15822,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15371,7 +15859,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +15896,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +15933,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15470,7 +15970,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15503,7 +16007,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15536,7 +16044,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,11 +16077,17 @@
         <v>10973.72600937904</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>173.1</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +16116,17 @@
         <v>10973.72600937904</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>175</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +16155,17 @@
         <v>11706.04440937904</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>175</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +16194,17 @@
         <v>11676.13580937904</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>176.9</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +16233,17 @@
         <v>8176.135809379037</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>175</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +16272,17 @@
         <v>7396.428309379036</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>174.9</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +16311,17 @@
         <v>7396.428309379036</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>173.1</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +16350,17 @@
         <v>7396.428309379036</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>173.1</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +16389,17 @@
         <v>7396.428309379036</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>173.1</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,7 +16428,7 @@
         <v>2989.003909379036</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>173.1</v>
@@ -15870,7 +16436,7 @@
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L469" t="n">
@@ -15901,7 +16467,7 @@
         <v>3027.588009379037</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>170</v>
@@ -15940,7 +16506,7 @@
         <v>9681.013409379037</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>174.5</v>
@@ -15979,9 +16545,11 @@
         <v>9039.898009379036</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>180.6</v>
+      </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16016,9 +16584,11 @@
         <v>9654.188609379036</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>172.1</v>
+      </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16053,9 +16623,11 @@
         <v>9795.374009379037</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>180.6</v>
+      </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16275,9 +16847,11 @@
         <v>7454.829209379036</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>179.5</v>
+      </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16460,9 +17034,11 @@
         <v>5681.471109379037</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>177.1</v>
+      </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -16497,9 +17073,11 @@
         <v>17694.50707681804</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>176.8</v>
+      </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -16512,6 +17090,6 @@
       <c r="M486" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest DAD.xlsx
+++ b/BackTest/2020-01-24 BackTest DAD.xlsx
@@ -484,7 +484,7 @@
         <v>126405.860280731</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>146983.228880731</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>146983.228880731</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>145062.334280731</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>145917.877680731</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>145396.709880731</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>146626.178196945</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>144235.471325077</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>144267.834225077</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>144267.834225077</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>134996.528025077</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>135816.025618659</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>135816.025618659</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>129916.950418659</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>124481.7193093791</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>125729.8259093791</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>125420.1461093791</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>125424.5852093791</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>125424.5852093791</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>123442.1419093791</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>123965.8469093791</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>123948.0839093791</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>123635.0617093791</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>123639.0617093791</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>121857.4381093791</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>122640.7293093791</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>118095.3960093791</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>118095.3960093791</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>118096.5960093791</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>111301.1508093791</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>111351.1508093791</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>111351.1508093791</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>111458.2738093791</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>110403.6290093791</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>110403.6290093791</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>110403.6290093791</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>89579.38850937906</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>93467.55060937906</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>98508.27180937906</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>98508.27180937906</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>98685.11960937906</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>98685.11960937906</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>98142.03970937907</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>99462.86970937907</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>101567.5855093791</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>101524.5578093791</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>101347.0926093791</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>101347.0926093791</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>101259.6627093791</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>101167.2620093791</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>101122.5471093791</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>96227.40470937906</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>95978.86040937906</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>94420.41650937907</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>94588.80540937907</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>90682.19190937906</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>90685.19190937906</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>98629.70150937907</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>98629.70150937907</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>82908.15950937907</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>83473.40860937907</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>81417.00260937907</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>81417.00260937907</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>80348.92420937907</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>80348.92420937907</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>72167.11640937907</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>85030.10410937907</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>84972.97410937907</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>84915.84410937906</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>65420.42080937906</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>68672.09560937906</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>59749.59670937906</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>59700.48790937906</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>62831.58810937906</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>46304.70930937906</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>43129.66700937906</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>43215.56700937906</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>42455.29650937906</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -15697,10 +15697,14 @@
         <v>8176.135809379037</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>175</v>
+      </c>
+      <c r="J464" t="n">
+        <v>175</v>
+      </c>
       <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
@@ -15730,11 +15734,19 @@
         <v>7396.428309379036</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="J465" t="n">
+        <v>175</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +15775,19 @@
         <v>7396.428309379036</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>173.1</v>
+      </c>
+      <c r="J466" t="n">
+        <v>175</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15802,9 +15822,13 @@
         <v>173.1</v>
       </c>
       <c r="J467" t="n">
-        <v>173.1</v>
-      </c>
-      <c r="K467" t="inlineStr"/>
+        <v>175</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15839,11 +15863,11 @@
         <v>173.1</v>
       </c>
       <c r="J468" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L468" t="n">
@@ -15880,11 +15904,11 @@
         <v>173.1</v>
       </c>
       <c r="J469" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L469" t="n">
@@ -15921,7 +15945,7 @@
         <v>170</v>
       </c>
       <c r="J470" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -15962,7 +15986,7 @@
         <v>174.5</v>
       </c>
       <c r="J471" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -15997,11 +16021,13 @@
         <v>9039.898009379036</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>180.6</v>
+      </c>
       <c r="J472" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16040,7 +16066,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16079,7 +16105,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16118,7 +16144,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16157,7 +16183,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16196,7 +16222,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16235,7 +16261,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16274,7 +16300,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16313,7 +16339,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16352,7 +16378,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16391,7 +16417,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16430,7 +16456,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16469,7 +16495,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16504,11 +16530,13 @@
         <v>5681.471109379037</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>177.1</v>
+      </c>
       <c r="J485" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16543,11 +16571,13 @@
         <v>17694.50707681804</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>176.8</v>
+      </c>
       <c r="J486" t="n">
-        <v>173.1</v>
+        <v>175</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
